--- a/Pandas/input/Grade.xlsx
+++ b/Pandas/input/Grade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>Student</t>
   </si>
@@ -54,21 +54,6 @@
   </si>
   <si>
     <t>student9</t>
-  </si>
-  <si>
-    <t>student10</t>
-  </si>
-  <si>
-    <t>student11</t>
-  </si>
-  <si>
-    <t>student12</t>
-  </si>
-  <si>
-    <t>student13</t>
-  </si>
-  <si>
-    <t>student14</t>
   </si>
   <si>
     <t>q1</t>
@@ -398,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -411,13 +396,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -425,13 +410,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -439,13 +424,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -453,13 +438,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -467,13 +452,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -481,13 +466,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -495,13 +480,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -509,13 +494,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -523,13 +508,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -537,83 +522,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Pandas/input/Grade.xlsx
+++ b/Pandas/input/Grade.xlsx
@@ -56,19 +56,19 @@
     <t>student9</t>
   </si>
   <si>
-    <t>q1</t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>q3</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>question 1</t>
+  </si>
+  <si>
+    <t>question 2</t>
+  </si>
+  <si>
+    <t>question 3</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -396,13 +396,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -410,13 +410,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -424,13 +424,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -438,13 +438,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -452,13 +452,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -466,13 +466,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -480,13 +480,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -494,13 +494,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -508,13 +508,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -522,13 +522,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
